--- a/DOC/要件定義/社内管理システム_要件定義.xlsx
+++ b/DOC/要件定義/社内管理システム_要件定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitwork\office\DOC\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E44D37-0656-451F-9119-B9C4FC0C7EB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442EBC72-2A14-44EB-AB27-1E367602D668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="1000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="履歴リスト" sheetId="13" r:id="rId1"/>
@@ -19,9 +19,7 @@
     <sheet name="ログイン" sheetId="2" r:id="rId4"/>
     <sheet name="オフィス画面" sheetId="8" r:id="rId5"/>
     <sheet name="給料明細" sheetId="5" r:id="rId6"/>
-    <sheet name="稼働時間入力" sheetId="11" r:id="rId7"/>
-    <sheet name="交通費入力" sheetId="10" r:id="rId8"/>
-    <sheet name="稼働確認" sheetId="12" r:id="rId9"/>
+    <sheet name="稼働入力" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="117">
   <si>
     <t>１）言語</t>
     <rPh sb="2" eb="4">
@@ -499,31 +497,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>月ごと、一般ユーザーは当月分の勤務時間を入力およびアップロード機能</t>
-    <rPh sb="0" eb="1">
-      <t>ゲツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>トウゲツブン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>月ごと、勤務時間と交通費を入力後給料を自動算出機能。管理者権限者のみ利用可能</t>
     <rPh sb="0" eb="1">
       <t>ゲツ</t>
@@ -888,202 +861,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・当月稼働時間を入力する。</t>
-    <rPh sb="1" eb="3">
-      <t>トウゲツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カドウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・勤務表のアップロードできる場合、アップロードする。</t>
-    <rPh sb="1" eb="3">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P005</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>交通費入力</t>
-    <rPh sb="0" eb="3">
-      <t>コウツウヒ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・当月定期券を入力する。</t>
-    <rPh sb="1" eb="3">
-      <t>トウゲツ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>テイキケン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・日帰り出張場合の出張旅費総額を記入し、詳細ファイルをアップロードする。</t>
-    <rPh sb="1" eb="3">
-      <t>ヒガエ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュッチョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シュッチョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>リョヒ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ソウガク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>キニュウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2019/9/24</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P006</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>稼働確認</t>
-    <rPh sb="0" eb="2">
-      <t>カドウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>経理/管理者権限で</t>
-    <rPh sb="0" eb="2">
-      <t>ケイリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケンゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・各自の稼働時間および交通費の入力状況確認できる</t>
-    <rPh sb="1" eb="3">
-      <t>カクジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カドウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>コウツウヒ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・未入力の方に、「催促」ボタンを押すと催促メールを送信（WeChat？）</t>
-    <rPh sb="1" eb="2">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サイソク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>サイソク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・全員入力済みの場合、「給料作成」ボタンを押すと、給料を作成される。</t>
-    <rPh sb="1" eb="3">
-      <t>ゼンイン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キュウリョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>キュウリョウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>サクセイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1260,6 +1038,177 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月ごと、一般ユーザーは当月分の勤務時間を入力およびアップロード ⇒　稼働入力</t>
+    <rPh sb="0" eb="1">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>トウゲツブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月ごと、一般ユーザーは当月分の勤務時間を入力およびアップロード機能　⇒　稼働入力</t>
+    <rPh sb="0" eb="1">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>トウゲツブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１）毎月末、社員が当月の稼働時間及びタイムレポートファイルをアップロードする。</t>
+    <rPh sb="2" eb="4">
+      <t>マイゲツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウゲツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルアップロードは可能の場合に限り。</t>
+    <rPh sb="11" eb="13">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２）前月、次月の給料明細の表示ができる</t>
+    <rPh sb="2" eb="4">
+      <t>ゼンゲツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キュウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前月と比べ交通費変更がある場合、交通費も入力する。</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンゲツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コウツウヒ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３）稼働時間および交通費をシステムに更新する。</t>
+    <rPh sb="2" eb="4">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>コウツウヒ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・勤怠情報</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・交通費情報</t>
+    <rPh sb="1" eb="4">
+      <t>コウツウヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4422,23 +4371,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37FAFF62-B99B-466D-818A-B3F2D5270446}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70990AAE-42F2-468B-8E78-99AB2E12E9B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4446,14 +4395,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="295274" y="828674"/>
-          <a:ext cx="6086476" cy="4124325"/>
+          <a:off x="552450" y="800100"/>
+          <a:ext cx="5238750" cy="4010025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -4477,14 +4426,14 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -4499,48 +4448,24 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>　　　　　　　　　</a:t>
+            <a:t>　　　　　　　　　　　　　</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2020</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>年０４月</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -4571,7 +4496,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>　　　　　　　　　</a:t>
+            <a:t>　社員名前　　稼働時間　　</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -4581,11 +4506,22 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　郭 煥光　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>160h</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4598,16 +4534,13 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>                                           </a:t>
+            <a:t>　</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -4616,14 +4549,14 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　　交通費変更ありか</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -4646,119 +4579,14 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>　　　　　　　　　　　　　　　　　　　　</a:t>
+            <a:t>　　起点：　　　　　　　　　　　　交通機関：　</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線コネクタ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0414CBF5-659E-4C28-A41D-DBD91C0C937B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1628775" y="828675"/>
-          <a:ext cx="19050" cy="4114800"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A30033D7-80DF-4A30-B4CE-D69D3B9BEF41}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="180975" y="923925"/>
-          <a:ext cx="1019175" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -4767,949 +4595,8 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>機能：</a:t>
+            <a:t>　　終点：　　　　　　　　　　　　定期券（月）</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F93B2A4D-71BA-4F52-BE24-70EA85C4FBC7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="247650" y="1266825"/>
-          <a:ext cx="1019175" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　給料管理</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4F6F802-0FE1-4DD2-A636-43D6B8ACD324}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="247650" y="1609725"/>
-          <a:ext cx="1019175" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　稼働時間</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A38053-5933-4AB8-9409-492E0CCA8440}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="247650" y="1933575"/>
-          <a:ext cx="1019175" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　交通費</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38102</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C6AA924-C7FF-4426-9150-62072D6B2FB6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3314701" y="1552577"/>
-          <a:ext cx="314324" cy="323848"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>年</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71A130E8-FFC4-423E-B202-DD3D5C912EAF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="247650" y="4533900"/>
-          <a:ext cx="1152525" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　只今の日時</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B6E3168-7B75-4356-A341-792DCD0D2464}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="295275" y="3286125"/>
-          <a:ext cx="1209675" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　社員リスト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85727</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{733C7539-9C96-403A-96FC-4AE0B025C6A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2914651" y="1600202"/>
-          <a:ext cx="485774" cy="228598"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2020</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38102</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5972729E-1929-4C23-8C1D-9D3929DC9358}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3819526" y="1552577"/>
-          <a:ext cx="361950" cy="323848"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>月</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76202</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C40AE7CB-2715-41FA-B293-90C352880B31}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3543301" y="1590677"/>
-          <a:ext cx="342899" cy="247648"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>01</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171452</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01378DF3-8BB0-45C5-AFFA-4E0D2F70ED4B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2028825" y="2162177"/>
-          <a:ext cx="1504950" cy="342898"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>本月の稼働時間：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>209551</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0289D00A-5D13-4633-AA69-506B01CC77F9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3486150" y="2228851"/>
-          <a:ext cx="704850" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>190</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD1BE5D7-692C-4E8B-A0CE-9102F74F1144}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2600324" y="2705100"/>
-          <a:ext cx="1581151" cy="304799"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>勤務表アップロード</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB5B4B6-28B8-4F5F-93BA-3B554005E4B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="180975" y="809624"/>
-          <a:ext cx="8410575" cy="4124325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -5732,64 +4619,44 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>　　　　　　　　　</a:t>
+            <a:t>　　中間点</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　　　　　　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>交通機関：　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -5804,67 +4671,8 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>　　　　　　　　　</a:t>
+            <a:t>　　</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>                                           </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -5879,627 +4687,9 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>　　　　　　　　　　　　　　　　　　　　</a:t>
+            <a:t>　　　</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線コネクタ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14C4F9A5-5143-40A5-A025-FD67642E861B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1628775" y="828675"/>
-          <a:ext cx="19050" cy="4114800"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EDD4CF5-9C78-4FA3-AE2D-CC6640E76DD1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="180975" y="923925"/>
-          <a:ext cx="1019175" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>機能：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACC04397-A4F9-4CBB-BC5C-35672DB2E541}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="247650" y="1266825"/>
-          <a:ext cx="1019175" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　給料管理</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26FE201C-C061-43DD-A679-863E3D1D3814}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="247650" y="1609725"/>
-          <a:ext cx="1019175" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　稼働時間</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E412B256-0AF5-4EB1-A263-99978215F4C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="247650" y="1933575"/>
-          <a:ext cx="1019175" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　交通費</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38102</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAC4C620-D9B0-4F22-B60A-BFFB40D9F217}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3314701" y="1552577"/>
-          <a:ext cx="314324" cy="323848"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>年</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4437D5-35EC-4202-B48A-821002EEA8D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="247650" y="4533900"/>
-          <a:ext cx="1152525" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　只今の日時</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF4D21F7-ADDB-4D30-83E2-05B1A307DB64}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="295275" y="3286125"/>
-          <a:ext cx="1209675" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　社員リスト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85727</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D8A64B9-962A-4C00-9276-52E5AA3309CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2914651" y="1600202"/>
-          <a:ext cx="485774" cy="228598"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2020</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -6511,3904 +4701,691 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38102</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="35" name="グループ化 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E6BF1BF-AA11-4BA4-9F53-E879AEECA54D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02D327F1-99AE-4AF9-A0E3-82CCBBB4E045}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3819526" y="1552577"/>
-          <a:ext cx="361950" cy="323848"/>
+          <a:off x="666750" y="904875"/>
+          <a:ext cx="4991100" cy="3609975"/>
+          <a:chOff x="571500" y="809625"/>
+          <a:chExt cx="4991100" cy="3609975"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="左矢印 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B95E8B-B834-4EBF-B738-D365BC3FEA26}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="571500" y="828675"/>
+            <a:ext cx="285750" cy="152400"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftArrow">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="正方形/長方形 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D7C806-CDB0-47C9-AF4A-50EA07AD38E7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="933450" y="809625"/>
+            <a:ext cx="561975" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>前月</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="正方形/長方形 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E5C652-C789-4BE4-B086-6CCD3A515CED}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4781550" y="819150"/>
+            <a:ext cx="466725" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>次月</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="右矢印 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB3F3345-9DE4-4A1F-94A9-909B360B07CF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5314950" y="876300"/>
+            <a:ext cx="247650" cy="161925"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="正方形/長方形 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F20D61B3-6CB3-42CF-AA0A-A1833162F984}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1295401" y="2819400"/>
+            <a:ext cx="857250" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>西川口駅</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="正方形/長方形 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AC26A06-12C4-4885-83EB-B3D1FC6C972F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="685801" y="2495550"/>
+            <a:ext cx="190500" cy="180975"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>月</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76202</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0856672B-7BD8-465D-B834-7205FC5B6035}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3543301" y="1590677"/>
-          <a:ext cx="342899" cy="247648"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="正方形/長方形 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BCBE60B-98C1-4614-B174-AE7F9BABA890}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3810001" y="2828925"/>
+            <a:ext cx="857250" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>JR</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>01</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97DAF32-303E-4B57-BE23-958363C220FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1752600" y="1990727"/>
-          <a:ext cx="847725" cy="342898"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>定期券：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BF0A75-F968-4467-89CE-54CA71B4AF1B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2409825" y="2466976"/>
-          <a:ext cx="771526" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>西川口</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180977</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C77FF91-4C98-44B7-8261-0B677BA4444E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1866901" y="2409827"/>
-          <a:ext cx="628650" cy="314323"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>駅</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>200027</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61BBDC66-30AF-4276-8B86-B129A45D423C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3190875" y="2428877"/>
-          <a:ext cx="952499" cy="304798"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>交通機関：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{955C9AAB-27B8-441A-B3C0-0A48F58B7946}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4076700" y="2457451"/>
-          <a:ext cx="771526" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>JR</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>200026</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E5C87D-0CFB-492E-98C9-02FAB1F5F8AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5410200" y="2428876"/>
-          <a:ext cx="771526" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>品川</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190502</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C25A9FC-F344-4E6B-9F4F-201CDE14C954}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4924426" y="2419352"/>
-          <a:ext cx="590549" cy="314323"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>駅</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>209551</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="正方形/長方形 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72BDC6C7-3DB6-41F2-B143-D43A85D8ED01}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7153275" y="2438401"/>
-          <a:ext cx="771526" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>11,360</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>円</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190502</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEE4ABC-BEDC-4E12-9C20-B92761CB3FA0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6438901" y="2419352"/>
-          <a:ext cx="790574" cy="314323"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ケ月：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E4ABC2-C371-4879-BD42-C214D07CBDDE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2419350" y="2800351"/>
-          <a:ext cx="771526" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>品川</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38102</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85996227-9DE8-4883-BEDD-66646AFB4724}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1876426" y="2743202"/>
-          <a:ext cx="628650" cy="314323"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>駅</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57152</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88EB4EAD-DFA4-4675-BBFD-4F3BA911D300}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3200400" y="2762252"/>
-          <a:ext cx="952499" cy="304798"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>交通機関：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CB52D8B-CE52-4489-92DA-25E7825D0F1C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4086225" y="2790826"/>
-          <a:ext cx="771526" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>JR</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="正方形/長方形 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AFD9953-04E1-4CEA-AB5F-DE2ECB34AE10}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5419724" y="2762251"/>
-          <a:ext cx="1057275" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>天王洲アイル</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47627</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="正方形/長方形 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2884DE90-3644-4318-9800-261B40A4A15F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4933951" y="2752727"/>
-          <a:ext cx="590549" cy="314323"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>駅</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="正方形/長方形 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B72CFAEC-6EFA-4EFB-B4F2-9FF780E15BC5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7162800" y="2771776"/>
-          <a:ext cx="771526" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>2,400</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>円</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47627</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="正方形/長方形 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C83E0103-BA3A-490A-A8BC-CD088A1EB3DE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6457951" y="2752727"/>
-          <a:ext cx="790574" cy="314323"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ケ月：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="正方形/長方形 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{443E4685-46A8-4CFA-9AFF-F0543A8F66E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2533650" y="2019301"/>
-          <a:ext cx="771526" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>13,760</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>円</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133352</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="正方形/長方形 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD185EF-32EE-4D3A-956C-1E1CAF87F5EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1733550" y="3314702"/>
-          <a:ext cx="952500" cy="276223"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>短期出張：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="正方形/長方形 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7991A65-7E71-4887-A30E-2B0E942E746F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2695575" y="3333751"/>
-          <a:ext cx="771526" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>540</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>円</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123827</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="正方形/長方形 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8104D1F8-529E-4209-B0E4-C37D2C43DD38}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3590924" y="3305177"/>
-          <a:ext cx="1781175" cy="276223"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>短期出張アップロード</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBCA6945-E30D-4B12-83AF-668E00165D5F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="85725" y="809624"/>
-          <a:ext cx="8410575" cy="4124325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　　　　　　　　　</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　　　　　　　　　</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>                                           </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　　　　　　　　　　　　　　　　　　　　</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線コネクタ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{817C9E4D-916C-4A90-B643-7C7096C2C5CB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1628775" y="828675"/>
-          <a:ext cx="19050" cy="4114800"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{611748E1-6F37-4C17-8A74-16B8AC112AB2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="180975" y="923925"/>
-          <a:ext cx="1019175" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>機能：</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA41B37-F823-4555-81E2-61CDB945E832}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="247650" y="1266825"/>
-          <a:ext cx="1019175" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　給料管理</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41D7F220-CAEF-4221-BFA5-3A14E4B973DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="247650" y="1609725"/>
-          <a:ext cx="1019175" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　稼働時間</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{556186DB-8C78-4E31-933B-EED86A0FC9E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="247650" y="1933575"/>
-          <a:ext cx="1019175" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　交通費</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38102</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BACDB017-5A98-44A2-93D6-5CCC0D662ED6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3314701" y="1552577"/>
-          <a:ext cx="314324" cy="323848"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>年</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{819059F4-26D5-448D-B565-44B1174B54FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="247650" y="4533900"/>
-          <a:ext cx="1152525" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　只今の日時</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDC1160-E58B-4887-B4F7-7AF0F229942D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="295275" y="3286125"/>
-          <a:ext cx="1209675" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　社員リスト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85727</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6113F54F-8E44-4A0B-9B52-38D8A9C03BF7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2914651" y="1600202"/>
-          <a:ext cx="485774" cy="228598"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2020</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38102</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3871DA1-92C6-4177-84C8-2BF4345A52EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3819526" y="1552577"/>
-          <a:ext cx="361950" cy="323848"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>月</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76202</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6309513E-97F5-495B-B6ED-35429AE9D30C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3543301" y="1590677"/>
-          <a:ext cx="342899" cy="247648"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>01</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>123827</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E15791-701A-4D7E-B95A-2097BDD28321}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1762125" y="2352677"/>
-          <a:ext cx="847725" cy="342898"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>郭  煥光</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C6C580-DF90-41BA-8E34-7CD91F4A66FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2543176" y="2409825"/>
-          <a:ext cx="628650" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>169</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A599D82D-0D81-462F-9A82-9A5CE06C272F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3219450" y="2400301"/>
-          <a:ext cx="771525" cy="314323"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>12690</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>171452</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{245BE8D8-5A47-48F4-A206-8CB50FE2C321}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4095750" y="2400302"/>
-          <a:ext cx="952499" cy="304798"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>540</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19052</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="正方形/長方形 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB20F76-145F-47AE-9E43-E3BF97A047C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1809750" y="2009777"/>
-          <a:ext cx="847725" cy="342898"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>名前</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="正方形/長方形 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88AAE7BC-1BA4-4631-BA7E-BCBACA6FB62F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2428875" y="2038350"/>
-          <a:ext cx="933449" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>稼働時間</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="正方形/長方形 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5640B96A-A04E-447C-8151-4CE56D9AF5B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3248025" y="2038351"/>
-          <a:ext cx="771525" cy="314323"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>定期券</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47627</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="正方形/長方形 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4A578EC-304D-4B26-92FF-6E524426F9E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4057651" y="2038352"/>
-          <a:ext cx="838200" cy="295273"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>短期出張</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19052</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="正方形/長方形 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FAA73FF-1905-476B-A2BA-4ED8715BBBDB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1800225" y="2724152"/>
-          <a:ext cx="847725" cy="342898"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>王　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>XXX</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="正方形/長方形 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4D35DF9-EAE3-4ED1-9569-C0CA237EF232}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2581276" y="2781300"/>
-          <a:ext cx="628650" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="正方形/長方形 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0398A3BF-0D16-4F15-B3C7-2814FD27EFDE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3257550" y="2771776"/>
-          <a:ext cx="771525" cy="314323"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>66677</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="正方形/長方形 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9313BF20-70A1-44C7-AFDA-DC0C4AAF1C27}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4133850" y="2771777"/>
-          <a:ext cx="952499" cy="304798"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="正方形/長方形 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C621ED05-A75C-4433-9932-FFE3489EFDD2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5057775" y="2790825"/>
-          <a:ext cx="561975" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>催促</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="正方形/長方形 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13C74859-53A4-4CD2-BA7A-EC2539DB6933}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5000625" y="4114800"/>
-          <a:ext cx="800100" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>給料作成</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="正方形/長方形 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD9E61A-5FEA-45EC-8E29-1F9E70BE4F28}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1304926" y="3143250"/>
+            <a:ext cx="857250" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>品川駅</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="正方形/長方形 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1614F95D-E32C-4FBA-9A2E-2C32DA5D890D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3810001" y="3133725"/>
+            <a:ext cx="857250" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>15000</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>円</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="正方形/長方形 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B1CC879-486D-4A6C-9327-4F2AF46F960B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1314451" y="3524250"/>
+            <a:ext cx="857250" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>○○駅</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="正方形/長方形 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20409AE0-94D0-4C6D-8134-6C179354F8F4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3810001" y="3552825"/>
+            <a:ext cx="857250" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>東武</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="正方形/長方形 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04229DEB-C6C3-4570-B330-6D65DA7C4DBE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4629150" y="4133850"/>
+            <a:ext cx="466725" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>提出</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10692,21 +5669,21 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C2" s="20" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="21" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
@@ -10714,13 +5691,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D4" s="24">
         <v>43940</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
@@ -10829,8 +5806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B367AC8-F16C-4AD1-B8DC-6A209963DB1D}">
   <dimension ref="A31:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10868,7 +5845,7 @@
       <c r="K32" s="30"/>
       <c r="L32" s="30"/>
       <c r="M32" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
@@ -10879,7 +5856,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
@@ -10890,7 +5867,7 @@
       <c r="K33" s="29"/>
       <c r="L33" s="29"/>
       <c r="M33" s="14" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.4">
@@ -10901,7 +5878,7 @@
         <v>52</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="29"/>
@@ -10912,7 +5889,7 @@
       <c r="K34" s="29"/>
       <c r="L34" s="29"/>
       <c r="M34" s="14" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.4">
@@ -10923,7 +5900,7 @@
         <v>53</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
@@ -10943,7 +5920,7 @@
         <v>54</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
@@ -10963,7 +5940,7 @@
         <v>55</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
@@ -10983,7 +5960,7 @@
         <v>56</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E38" s="28"/>
       <c r="F38" s="28"/>
@@ -10994,7 +5971,7 @@
       <c r="K38" s="28"/>
       <c r="L38" s="28"/>
       <c r="M38" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.4">
@@ -11002,10 +5979,10 @@
         <v>6</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
@@ -11022,10 +5999,10 @@
         <v>7</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="28"/>
@@ -11051,7 +6028,8 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11075,12 +6053,12 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -11090,37 +6068,37 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -11178,7 +6156,7 @@
       <c r="AA1" s="31"/>
       <c r="AB1" s="31"/>
       <c r="AC1" s="33" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="AD1" s="33"/>
       <c r="AE1" s="33"/>
@@ -11194,7 +6172,7 @@
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
       <c r="F2" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
@@ -12117,7 +7095,7 @@
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -12689,7 +7667,7 @@
       <c r="AA1" s="31"/>
       <c r="AB1" s="31"/>
       <c r="AC1" s="33" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="AD1" s="33"/>
       <c r="AE1" s="33"/>
@@ -12705,7 +7683,7 @@
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
       <c r="F2" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
@@ -12720,7 +7698,7 @@
       <c r="O2" s="32"/>
       <c r="P2" s="32"/>
       <c r="Q2" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R2" s="32"/>
       <c r="S2" s="32"/>
@@ -12746,7 +7724,7 @@
         <v>9</v>
       </c>
       <c r="Y3" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG3" s="3"/>
     </row>
@@ -12754,7 +7732,7 @@
       <c r="A4" s="1"/>
       <c r="Y4" s="17"/>
       <c r="Z4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG4" s="3"/>
     </row>
@@ -12762,7 +7740,7 @@
       <c r="A5" s="1"/>
       <c r="Y5" s="17"/>
       <c r="Z5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AG5" s="3"/>
     </row>
@@ -12780,7 +7758,7 @@
       <c r="A8" s="1"/>
       <c r="Y8" s="17"/>
       <c r="Z8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG8" s="3"/>
     </row>
@@ -12788,7 +7766,7 @@
       <c r="A9" s="1"/>
       <c r="Y9" s="17"/>
       <c r="Z9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AG9" s="3"/>
     </row>
@@ -12891,35 +7869,35 @@
     <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG23" s="3"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG24" s="3"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG25" s="3"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG26" s="3"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG27" s="3"/>
     </row>
@@ -12930,35 +7908,35 @@
     <row r="29" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG29" s="3"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG30" s="3"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG32" s="3"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG33" s="3"/>
     </row>
@@ -13065,7 +8043,7 @@
       <c r="AA1" s="31"/>
       <c r="AB1" s="31"/>
       <c r="AC1" s="33" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="AD1" s="33"/>
       <c r="AE1" s="33"/>
@@ -13082,7 +8060,7 @@
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
       <c r="F2" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
@@ -13954,7 +8932,7 @@
     <row r="25" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -14304,10 +9282,10 @@
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AN23" sqref="AN23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AN21" sqref="AN21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14351,7 +9329,7 @@
       <c r="AA1" s="31"/>
       <c r="AB1" s="31"/>
       <c r="AC1" s="33" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="AD1" s="33"/>
       <c r="AE1" s="33"/>
@@ -14367,7 +9345,7 @@
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
       <c r="F2" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
@@ -14382,7 +9360,7 @@
       <c r="O2" s="32"/>
       <c r="P2" s="32"/>
       <c r="Q2" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="32"/>
       <c r="S2" s="32"/>
@@ -14408,18 +9386,24 @@
         <v>9</v>
       </c>
       <c r="Y3" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG3" s="3"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="Y4" s="17"/>
+      <c r="Z4" t="s">
+        <v>115</v>
+      </c>
       <c r="AG4" s="3"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="Y5" s="17"/>
+      <c r="Z5" t="s">
+        <v>116</v>
+      </c>
       <c r="AG5" s="3"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
@@ -14544,56 +9528,69 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="C24" t="s">
-        <v>93</v>
+      <c r="B24" t="s">
+        <v>110</v>
       </c>
       <c r="AG24" s="3"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="AG25" s="3"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
+      <c r="B26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" t="s">
+        <v>113</v>
+      </c>
       <c r="AG26" s="3"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="8"/>
-      <c r="AG27" s="9"/>
+      <c r="A27" s="1"/>
+      <c r="B27" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG27" s="3"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -14612,704 +9609,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BC5A52-DBD2-4442-AE1E-7314248ADAF7}">
-  <sheetPr>
-    <tabColor rgb="FF0000FF"/>
-  </sheetPr>
-  <dimension ref="A1:AO27"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AJ9" sqref="AJ9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="70" width="3.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-    </row>
-    <row r="2" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-    </row>
-    <row r="3" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG3" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO3" s="3"/>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="AG4" s="17"/>
-      <c r="AO4" s="3"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="AG5" s="17"/>
-      <c r="AO5" s="3"/>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="AG6" s="17"/>
-      <c r="AO6" s="3"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="AG7" s="17"/>
-      <c r="AO7" s="3"/>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="AG8" s="17"/>
-      <c r="AO8" s="3"/>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="AG9" s="17"/>
-      <c r="AO9" s="3"/>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="AG10" s="17"/>
-      <c r="AO10" s="3"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="AG11" s="17"/>
-      <c r="AO11" s="3"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="AG12" s="17"/>
-      <c r="AO12" s="3"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="AG13" s="17"/>
-      <c r="AO13" s="3"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
-      <c r="AG14" s="17"/>
-      <c r="AO14" s="3"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="AG15" s="17"/>
-      <c r="AO15" s="3"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="AG16" s="17"/>
-      <c r="AO16" s="3"/>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="AG17" s="17"/>
-      <c r="AO17" s="3"/>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
-      <c r="AG18" s="17"/>
-      <c r="AO18" s="3"/>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A19" s="1"/>
-      <c r="AG19" s="17"/>
-      <c r="AO19" s="3"/>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A20" s="1"/>
-      <c r="AG20" s="17"/>
-      <c r="AO20" s="3"/>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="18"/>
-      <c r="AH21" s="8"/>
-      <c r="AI21" s="8"/>
-      <c r="AJ21" s="8"/>
-      <c r="AK21" s="8"/>
-      <c r="AL21" s="8"/>
-      <c r="AM21" s="8"/>
-      <c r="AN21" s="8"/>
-      <c r="AO21" s="9"/>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO22" s="3"/>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A23" s="1"/>
-      <c r="AO23" s="3"/>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A24" s="1"/>
-      <c r="C24" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO24" s="3"/>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A25" s="1"/>
-      <c r="C25" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO25" s="3"/>
-    </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A26" s="1"/>
-      <c r="AO26" s="3"/>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="8"/>
-      <c r="AG27" s="8"/>
-      <c r="AH27" s="8"/>
-      <c r="AI27" s="8"/>
-      <c r="AJ27" s="8"/>
-      <c r="AK27" s="8"/>
-      <c r="AL27" s="8"/>
-      <c r="AM27" s="8"/>
-      <c r="AN27" s="8"/>
-      <c r="AO27" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AG2"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="AK2:AO2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA733BC-7D98-4014-9050-14739B898453}">
-  <sheetPr>
-    <tabColor rgb="FF0000FF"/>
-  </sheetPr>
-  <dimension ref="A1:AO27"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AL15" sqref="AL15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="70" width="3.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-    </row>
-    <row r="2" spans="1:41" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-    </row>
-    <row r="3" spans="1:41" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG3" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO3" s="3"/>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="AG4" s="17"/>
-      <c r="AO4" s="3"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="AG5" s="17"/>
-      <c r="AO5" s="3"/>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="AG6" s="17"/>
-      <c r="AO6" s="3"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="AG7" s="17"/>
-      <c r="AO7" s="3"/>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="AG8" s="17"/>
-      <c r="AO8" s="3"/>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="AG9" s="17"/>
-      <c r="AO9" s="3"/>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="AG10" s="17"/>
-      <c r="AO10" s="3"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="AG11" s="17"/>
-      <c r="AO11" s="3"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="AG12" s="17"/>
-      <c r="AO12" s="3"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="AG13" s="17"/>
-      <c r="AO13" s="3"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
-      <c r="AG14" s="17"/>
-      <c r="AO14" s="3"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="AG15" s="17"/>
-      <c r="AO15" s="3"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="AG16" s="17"/>
-      <c r="AO16" s="3"/>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="AG17" s="17"/>
-      <c r="AO17" s="3"/>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
-      <c r="AG18" s="17"/>
-      <c r="AO18" s="3"/>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A19" s="1"/>
-      <c r="AG19" s="17"/>
-      <c r="AO19" s="3"/>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A20" s="1"/>
-      <c r="AG20" s="17"/>
-      <c r="AO20" s="3"/>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="18"/>
-      <c r="AH21" s="8"/>
-      <c r="AI21" s="8"/>
-      <c r="AJ21" s="8"/>
-      <c r="AK21" s="8"/>
-      <c r="AL21" s="8"/>
-      <c r="AM21" s="8"/>
-      <c r="AN21" s="8"/>
-      <c r="AO21" s="9"/>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO22" s="3"/>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A23" s="1"/>
-      <c r="C23" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO23" s="3"/>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A24" s="1"/>
-      <c r="C24" t="s">
-        <v>103</v>
-      </c>
-      <c r="AO24" s="3"/>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A25" s="1"/>
-      <c r="C25" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO25" s="3"/>
-    </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A26" s="1"/>
-      <c r="C26" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO26" s="3"/>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="8"/>
-      <c r="AG27" s="8"/>
-      <c r="AH27" s="8"/>
-      <c r="AI27" s="8"/>
-      <c r="AJ27" s="8"/>
-      <c r="AK27" s="8"/>
-      <c r="AL27" s="8"/>
-      <c r="AM27" s="8"/>
-      <c r="AN27" s="8"/>
-      <c r="AO27" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:AG2"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="AK2:AO2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>